--- a/importEmpTemplates/ImportXLSX_Template.xlsx
+++ b/importEmpTemplates/ImportXLSX_Template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CCAD98D-4681-4A9E-B199-BBE855B31828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9B879C-B89A-43ED-B5EC-EA1C064A3F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee_Import_Template" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
   <si>
     <r>
       <t>EmployeeCode</t>
@@ -245,6 +247,30 @@
     <t>SecondaryEmail</t>
   </si>
   <si>
+    <t>32446543</t>
+  </si>
+  <si>
+    <t>435678</t>
+  </si>
+  <si>
+    <t>4567867</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>LN</t>
+  </si>
+  <si>
+    <t>VY</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
     <t>Entity</t>
   </si>
   <si>
@@ -317,9 +343,6 @@
     <t>Contract</t>
   </si>
   <si>
-    <t>R&amp;D</t>
-  </si>
-  <si>
     <t>Entity4</t>
   </si>
   <si>
@@ -354,13 +377,19 @@
   </si>
   <si>
     <t>Marketing</t>
+  </si>
+  <si>
+    <t>ymouni@revealdata.com</t>
+  </si>
+  <si>
+    <t>134G7QP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -728,50 +757,50 @@
   <dimension ref="A1:AL20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="16.265625" customWidth="1"/>
+    <col min="2" max="2" width="27.73046875" customWidth="1"/>
+    <col min="3" max="3" width="15.73046875" style="7" customWidth="1"/>
     <col min="4" max="4" width="17" style="7" customWidth="1"/>
     <col min="5" max="5" width="16" style="7" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1"/>
-    <col min="9" max="9" width="25.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.1328125" customWidth="1"/>
+    <col min="7" max="7" width="18.73046875" customWidth="1"/>
+    <col min="8" max="8" width="16.86328125" customWidth="1"/>
+    <col min="9" max="9" width="25.86328125" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="27.7109375" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" customWidth="1"/>
+    <col min="12" max="12" width="27.73046875" customWidth="1"/>
+    <col min="13" max="13" width="17.265625" customWidth="1"/>
     <col min="14" max="14" width="19" customWidth="1"/>
-    <col min="15" max="15" width="16.140625" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" customWidth="1"/>
-    <col min="17" max="17" width="16.5703125" customWidth="1"/>
-    <col min="18" max="19" width="15.28515625" customWidth="1"/>
-    <col min="20" max="20" width="18.28515625" customWidth="1"/>
-    <col min="21" max="21" width="15.5703125" customWidth="1"/>
-    <col min="22" max="22" width="19.5703125" customWidth="1"/>
+    <col min="15" max="15" width="16.1328125" customWidth="1"/>
+    <col min="16" max="16" width="14.265625" customWidth="1"/>
+    <col min="17" max="17" width="16.59765625" customWidth="1"/>
+    <col min="18" max="19" width="15.265625" customWidth="1"/>
+    <col min="20" max="20" width="18.265625" customWidth="1"/>
+    <col min="21" max="21" width="15.59765625" customWidth="1"/>
+    <col min="22" max="22" width="19.59765625" customWidth="1"/>
     <col min="23" max="23" width="16" customWidth="1"/>
-    <col min="24" max="24" width="18.28515625" customWidth="1"/>
-    <col min="25" max="25" width="27.5703125" customWidth="1"/>
-    <col min="26" max="26" width="25.7109375" customWidth="1"/>
-    <col min="27" max="27" width="28.28515625" customWidth="1"/>
+    <col min="24" max="24" width="18.265625" customWidth="1"/>
+    <col min="25" max="25" width="27.59765625" customWidth="1"/>
+    <col min="26" max="26" width="25.73046875" customWidth="1"/>
+    <col min="27" max="27" width="28.265625" customWidth="1"/>
     <col min="28" max="28" width="23" customWidth="1"/>
-    <col min="29" max="29" width="24.85546875" customWidth="1"/>
-    <col min="30" max="30" width="23.85546875" customWidth="1"/>
-    <col min="31" max="31" width="18.28515625" customWidth="1"/>
-    <col min="32" max="32" width="23.5703125" customWidth="1"/>
-    <col min="33" max="33" width="17.140625" customWidth="1"/>
-    <col min="34" max="34" width="25.28515625" customWidth="1"/>
-    <col min="35" max="35" width="33.85546875" customWidth="1"/>
-    <col min="36" max="36" width="31.28515625" customWidth="1"/>
-    <col min="37" max="37" width="26.7109375" customWidth="1"/>
+    <col min="29" max="29" width="24.86328125" customWidth="1"/>
+    <col min="30" max="30" width="23.86328125" customWidth="1"/>
+    <col min="31" max="31" width="18.265625" customWidth="1"/>
+    <col min="32" max="32" width="23.59765625" customWidth="1"/>
+    <col min="33" max="33" width="17.1328125" customWidth="1"/>
+    <col min="34" max="34" width="25.265625" customWidth="1"/>
+    <col min="35" max="35" width="33.86328125" customWidth="1"/>
+    <col min="36" max="36" width="31.265625" customWidth="1"/>
+    <col min="37" max="37" width="26.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -887,15 +916,48 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
-      <c r="B2" s="4"/>
-      <c r="I2" s="1"/>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="1">
+        <v>23</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="4"/>
-      <c r="P2" s="5"/>
-    </row>
-    <row r="3" spans="1:38">
+      <c r="M2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B3" s="4"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -903,7 +965,7 @@
       <c r="L3" s="4"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B4" s="4"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -911,7 +973,7 @@
       <c r="L4" s="4"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B5" s="4"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -919,7 +981,7 @@
       <c r="L5" s="4"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B6" s="4"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -927,68 +989,71 @@
       <c r="L6" s="4"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B7" s="4"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
       <c r="L20" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{1539D8C2-29D7-401A-ABDB-6ABDF0E27763}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
@@ -1048,143 +1113,143 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" customWidth="1"/>
+    <col min="4" max="4" width="12.86328125" customWidth="1"/>
+    <col min="5" max="5" width="14.265625" customWidth="1"/>
+    <col min="6" max="6" width="16.265625" customWidth="1"/>
+    <col min="7" max="7" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/importEmpTemplates/ImportXLSX_Template.xlsx
+++ b/importEmpTemplates/ImportXLSX_Template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9B879C-B89A-43ED-B5EC-EA1C064A3F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB6A3E5-03CD-4562-88CA-89B740862F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -379,10 +379,10 @@
     <t>Marketing</t>
   </si>
   <si>
-    <t>ymouni@revealdata.com</t>
-  </si>
-  <si>
-    <t>134G7QP</t>
+    <t>ymounika@revealdata.com</t>
+  </si>
+  <si>
+    <t>4G713</t>
   </si>
 </sst>
 </file>
@@ -757,7 +757,7 @@
   <dimension ref="A1:AL20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
